--- a/biology/Botanique/Philippe_Cambie/Philippe_Cambie.xlsx
+++ b/biology/Botanique/Philippe_Cambie/Philippe_Cambie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Philippe Cambie, né le 21 janvier 1962 à Pézenas (Hérault) et mort le 18 décembre 2021 à Châteauneuf-du-Pape (Vaucluse), est un œnologue français employé par le groupe ICV (Institut Coopératif du Vin), dans la vallée du Rhône méridionale, reconnu par la presse pour avoir œuvré au renouveau des vins du Rhône[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philippe Cambie, né le 21 janvier 1962 à Pézenas (Hérault) et mort le 18 décembre 2021 à Châteauneuf-du-Pape (Vaucluse), est un œnologue français employé par le groupe ICV (Institut Coopératif du Vin), dans la vallée du Rhône méridionale, reconnu par la presse pour avoir œuvré au renouveau des vins du Rhône.
 </t>
         </is>
       </c>
@@ -511,15 +523,17 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Philippe Cambie est le fils d'Yves Cambie et de Jacqueline Blasco Villalonga. Il grandit au domaine de Montplaisir à Castelnau-de-Guers qui est la propriété de son père.
-Il obtient d’abord un diplôme universitaire de technologie (DUT) en industrie alimentaire à Montpellier, et ensuite fait l'École nationale supérieure des industries agricoles et alimentaires. Au cours de ses études, il approfondit ses connaissances en microbiologie afin d’accroître sa maîtrise des processus de vinification. Il complète sa formation par un diplôme d'œnologie obtenu à la Faculté de Pharmacie de Montpellier en 1986[2],[3].
+Il obtient d’abord un diplôme universitaire de technologie (DUT) en industrie alimentaire à Montpellier, et ensuite fait l'École nationale supérieure des industries agricoles et alimentaires. Au cours de ses études, il approfondit ses connaissances en microbiologie afin d’accroître sa maîtrise des processus de vinification. Il complète sa formation par un diplôme d'œnologie obtenu à la Faculté de Pharmacie de Montpellier en 1986,.
 Après de nombreuses expériences dans le milieu du vin, de la mise en bouteille dans le Vaucluse en passant par le négoce dans le bordelais et le nord de la France ou par le commerce dans le sud de la France jusqu'à la maîtrise de la production dans le Roussillon, il démarre une activité de conseil en 1998 au sein du Groupe ICV/VVS où il est toujours salarié en 2021. Le secteur Vallée du Rhône du groupe ICV se developpe au début des années 2000 pour passer de 2 à 8 œnologues et ingénieurs agronomes consultants et s'installe à Beaumes-de-Venise avec une capacité de 1 000 analyses par jour.
-Avec plus de 70 vignerons indépendants accompagnés dans le sud de la vallée du Rhône, l'Espagne, la Macédoine et la Roumanie, Philippe Cambie devient également en 2017 consultant au Cellier des Princes, seule cave coopérative de l'appellation Châteauneuf-du-pape[4].
-Philippe Cambie est un œnologue internationalement reconnu. En 2010, il est sacré œnologue de l'année par Robert Parker. L'année suivante le magazine Wine Enthusiast le classe parmi les cinq œnologues de l'année[5]. D'une très grande culture œnophile, il intervient en qualité d'œnologue plus particulièrement sur les vins du sud de la vallée du Rhône, de Châteauneuf-du-Pape et issus du cépage grenache[6],[7].
-Philippe Cambie a également joué au rugby, auquel il fait parfois référence[2],[8].
-Philippe Cambie meurt brusquement le 18 décembre 2021 à l'âge de 59 ans[9],[10],[11] à son domicile de Châteauneuf-du-Pape[12],[13]. Dans l'avis de remerciement à la suite de son décès paru dans la presse régionale, il est indiqué qu'il repose dans le caveau familial avec son père et une bouteille de Châteauneuf-du-Pape[14].
+Avec plus de 70 vignerons indépendants accompagnés dans le sud de la vallée du Rhône, l'Espagne, la Macédoine et la Roumanie, Philippe Cambie devient également en 2017 consultant au Cellier des Princes, seule cave coopérative de l'appellation Châteauneuf-du-pape.
+Philippe Cambie est un œnologue internationalement reconnu. En 2010, il est sacré œnologue de l'année par Robert Parker. L'année suivante le magazine Wine Enthusiast le classe parmi les cinq œnologues de l'année. D'une très grande culture œnophile, il intervient en qualité d'œnologue plus particulièrement sur les vins du sud de la vallée du Rhône, de Châteauneuf-du-Pape et issus du cépage grenache,.
+Philippe Cambie a également joué au rugby, auquel il fait parfois référence,.
+Philippe Cambie meurt brusquement le 18 décembre 2021 à l'âge de 59 ans à son domicile de Châteauneuf-du-Pape,. Dans l'avis de remerciement à la suite de son décès paru dans la presse régionale, il est indiqué qu'il repose dans le caveau familial avec son père et une bouteille de Châteauneuf-du-Pape.
 </t>
         </is>
       </c>
@@ -548,11 +562,13 @@
           <t>Activités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>En parallèle de son activité de consultant, il est également investi dans plusieurs projets viti-vinicoles, en tant que :
-copropriétaire avec Gilles Ferran du domaine Calendal au Plan-de-dieu[15],
-associé des « Halos de Jupiter » à Caissargues avec Michel Gassier[16],
+copropriétaire avec Gilles Ferran du domaine Calendal au Plan-de-dieu,
+associé des « Halos de Jupiter » à Caissargues avec Michel Gassier,
 associé pour Tenet Wines avec Bob Bertheau (Chateau Ste. Michelle) et Michel Gassier dans l'État de Washington (Columbia Valley),
 associé avec Justin Smith (Saxum Vineyards) et Sasha Verhage dans le projet « Downstream » à base de zinfandel, de mourvèdre et de petite syrah de Californie (Paso Robles), 
 associé avec Adam Lee (cofondateur de Siduri Wines) dans le projet « Beau Marchais » constitué de pinot noir de Californie,
